--- a/data/case1/11/Plm1_2.xlsx
+++ b/data/case1/11/Plm1_2.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.40579561871882674</v>
+        <v>-0.34985991912974157</v>
       </c>
       <c r="B1" s="0">
-        <v>0.40453182686073319</v>
+        <v>0.34892506166082171</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27753830499081822</v>
+        <v>-0.2207104345619868</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27424519569694006</v>
+        <v>0.21869507509484265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.1219884109266296</v>
+        <v>-0.11574613204672346</v>
       </c>
       <c r="B3" s="0">
-        <v>0.12148131216077829</v>
+        <v>0.11529328227173608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10948131236104786</v>
+        <v>-0.10329328233475366</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10905226073387375</v>
+        <v>0.10291471868270108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10305226151486657</v>
+        <v>-0.096914718918728049</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10221466526215739</v>
+        <v>0.096184069002950068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.07571424422153461</v>
+        <v>-0.037667284197057338</v>
       </c>
       <c r="B6" s="0">
-        <v>0.075626850669754386</v>
+        <v>0.037646140446406573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.055626851609437367</v>
+        <v>-0.01764614073357329</v>
       </c>
       <c r="B7" s="0">
-        <v>0.055449717739689319</v>
+        <v>0.017629596614574083</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.035449718686131781</v>
+        <v>-0.018022595488451643</v>
       </c>
       <c r="B8" s="0">
-        <v>0.035345777355241914</v>
+        <v>0.01799394603444604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029345778168178072</v>
+        <v>-0.01199394627723116</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029271977236938973</v>
+        <v>0.011979821731149976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.023271978055021236</v>
+        <v>-0.0059798219745346159</v>
       </c>
       <c r="B10" s="0">
-        <v>0.023271405230914866</v>
+        <v>0.0059802937632227327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.01877140603455274</v>
+        <v>-0.0014802940017268895</v>
       </c>
       <c r="B11" s="0">
-        <v>0.018764198247051667</v>
+        <v>0.0014805612759438702</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.012764199066359616</v>
+        <v>0.0045194384806905852</v>
       </c>
       <c r="B12" s="0">
-        <v>0.012745173823276001</v>
+        <v>-0.0045214769137205124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039151139698348381</v>
+        <v>0.010521476670800389</v>
       </c>
       <c r="B13" s="0">
-        <v>0.03908424566466806</v>
+        <v>-0.010525894989088513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027084246550644231</v>
+        <v>0.022525894726848072</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027052408603539746</v>
+        <v>-0.022551198581009402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.02105240943246578</v>
+        <v>-0.021051742617899549</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027418504689699</v>
+        <v>0.021026961284206003</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027419336340664</v>
+        <v>-0.01502696152687033</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003970947073508</v>
+        <v>0.015004454734373951</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090039717822589793</v>
+        <v>-0.009004454978104981</v>
       </c>
       <c r="B17" s="0">
-        <v>0.008999999133977532</v>
+        <v>0.0089999997461829295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11699352265248208</v>
+        <v>-0.036111471373907023</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11681805229628495</v>
+        <v>0.036097161072788708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096508562636235</v>
+        <v>-0.027097161308671236</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013025634660348</v>
+        <v>0.027013976119574235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013026416996425</v>
+        <v>-0.018013976357673656</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004175825625524</v>
+        <v>0.018004309348860659</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090041766090758202</v>
+        <v>-0.0090043095873202361</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999992157654418</v>
+        <v>0.0089999997612908444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093952144728463693</v>
+        <v>-0.093948943289600351</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093638120138470171</v>
+        <v>0.093635229891336991</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084638120942425843</v>
+        <v>-0.084635230135147843</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127346636869049</v>
+        <v>0.084127041076286879</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127347784156832</v>
+        <v>-0.0421270414324173</v>
       </c>
       <c r="B24" s="0">
-        <v>0.0419999988460944</v>
+        <v>0.041999999641814334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.020500421837773786</v>
+        <v>-0.05251678504679802</v>
       </c>
       <c r="B25" s="0">
-        <v>0.020486711643719957</v>
+        <v>0.052453592782917724</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.01448671244008537</v>
+        <v>-0.046453593024313733</v>
       </c>
       <c r="B26" s="0">
-        <v>0.014471413991390847</v>
+        <v>0.04637888134767465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0084714147882838375</v>
+        <v>-0.040378881589721694</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0084145661261736393</v>
+        <v>0.040145923855770871</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0024145669245259072</v>
+        <v>-0.034145924100413616</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0023809428725547477</v>
+        <v>0.034001720316335415</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062519366898250439</v>
+        <v>-0.022001720582313311</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062164066499519777</v>
+        <v>0.021951266725411145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042164067443715592</v>
+        <v>-0.0019512670182044722</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018119639953611</v>
+        <v>0.0018989596221690164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018120542123825</v>
+        <v>-0.027019632242065938</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000522295326235</v>
+        <v>0.027000904052494334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005232587307944</v>
+        <v>-0.006000904349096281</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999991862609292</v>
+        <v>0.0059999997524515791</v>
       </c>
     </row>
   </sheetData>
